--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31814.56069754728</v>
+        <v>6331097.57881191</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31814.56069754728</v>
+        <v>6331097.57881191</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95396.34818572002</v>
+        <v>9192972.460752614</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95396.34818572002</v>
+        <v>9192972.460752614</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343150854.266893</v>
+        <v>50693353.12340899</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14509.93338012904</v>
+        <v>1435729.713715128</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26598.95417842389</v>
+        <v>2459301.857993369</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38684.43707606248</v>
+        <v>3482874.002271612</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51345.52119151011</v>
+        <v>4505145.538049389</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64006.74215110113</v>
+        <v>5527444.305811703</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76667.96311069213</v>
+        <v>6549743.073574013</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89329.18407028295</v>
+        <v>7572041.841336373</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101990.4050298737</v>
+        <v>8594340.609098721</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115154.4127658044</v>
+        <v>9210010.15427818</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128906.9963848645</v>
+        <v>9942806.300200393</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>142659.5800039246</v>
+        <v>10675602.4461226</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>156412.1636229848</v>
+        <v>11408398.59204482</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>170164.7472420448</v>
+        <v>12141194.73796703</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>183917.3308611049</v>
+        <v>12873990.88388926</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>197669.9144801652</v>
+        <v>13606787.02981148</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>207.0000000000579</v>
@@ -27052,7 +27052,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>2.572234105318785e-11</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
